--- a/players_stats/Clifford Robinson.xlsx
+++ b/players_stats/Clifford Robinson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -574,86 +574,88 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
-        <v>1661</v>
+        <v>1565</v>
       </c>
       <c r="K2" t="n">
-        <v>391</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>833</v>
+        <v>751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.469</v>
+        <v>0.397</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="Q2" t="n">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="R2" t="n">
-        <v>829</v>
+        <v>707</v>
       </c>
       <c r="S2" t="n">
-        <v>0.47</v>
+        <v>0.405</v>
       </c>
       <c r="T2" t="n">
-        <v>0.47</v>
+        <v>0.405</v>
       </c>
       <c r="U2" t="n">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="V2" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6940000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X2" t="n">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="Y2" t="n">
-        <v>332</v>
+        <v>198</v>
       </c>
       <c r="Z2" t="n">
-        <v>506</v>
+        <v>308</v>
       </c>
       <c r="AA2" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AD2" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AE2" t="n">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="AF2" t="n">
-        <v>951</v>
+        <v>746</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -674,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>1990-91</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -696,86 +698,88 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
       <c r="J3" t="n">
-        <v>1822</v>
+        <v>1940</v>
       </c>
       <c r="K3" t="n">
-        <v>525</v>
+        <v>373</v>
       </c>
       <c r="L3" t="n">
-        <v>1070</v>
+        <v>806</v>
       </c>
       <c r="M3" t="n">
-        <v>0.491</v>
+        <v>0.463</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.316</v>
       </c>
       <c r="Q3" t="n">
-        <v>524</v>
+        <v>367</v>
       </c>
       <c r="R3" t="n">
-        <v>1069</v>
+        <v>787</v>
       </c>
       <c r="S3" t="n">
-        <v>0.49</v>
+        <v>0.466</v>
       </c>
       <c r="T3" t="n">
-        <v>0.491</v>
+        <v>0.467</v>
       </c>
       <c r="U3" t="n">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="V3" t="n">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="W3" t="n">
-        <v>0.718</v>
+        <v>0.653</v>
       </c>
       <c r="X3" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Y3" t="n">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="Z3" t="n">
-        <v>481</v>
+        <v>349</v>
       </c>
       <c r="AA3" t="n">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="AB3" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="n">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="AE3" t="n">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="AF3" t="n">
-        <v>1229</v>
+        <v>957</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -784,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -796,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>1991-92</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -814,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I4" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2175</v>
+        <v>2124</v>
       </c>
       <c r="K4" t="n">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>1143</v>
+        <v>854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.453</v>
+        <v>0.466</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="Q4" t="n">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="R4" t="n">
-        <v>1139</v>
+        <v>843</v>
       </c>
       <c r="S4" t="n">
-        <v>0.455</v>
+        <v>0.471</v>
       </c>
       <c r="T4" t="n">
-        <v>0.453</v>
+        <v>0.467</v>
       </c>
       <c r="U4" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V4" t="n">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7090000000000001</v>
+        <v>0.664</v>
       </c>
       <c r="X4" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="Y4" t="n">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="Z4" t="n">
-        <v>609</v>
+        <v>416</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AD4" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AE4" t="n">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="AF4" t="n">
-        <v>1258</v>
+        <v>1016</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -908,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -920,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>1992-93</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KCK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,88 +946,88 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>1229</v>
+        <v>2575</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>632</v>
       </c>
       <c r="L5" t="n">
-        <v>708</v>
+        <v>1336</v>
       </c>
       <c r="M5" t="n">
-        <v>0.455</v>
+        <v>0.473</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.247</v>
       </c>
       <c r="Q5" t="n">
-        <v>322</v>
+        <v>613</v>
       </c>
       <c r="R5" t="n">
-        <v>705</v>
+        <v>1259</v>
       </c>
       <c r="S5" t="n">
-        <v>0.457</v>
+        <v>0.487</v>
       </c>
       <c r="T5" t="n">
-        <v>0.455</v>
+        <v>0.48</v>
       </c>
       <c r="U5" t="n">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="V5" t="n">
-        <v>180</v>
+        <v>416</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6940000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="Y5" t="n">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="Z5" t="n">
-        <v>322</v>
+        <v>542</v>
       </c>
       <c r="AA5" t="n">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="AB5" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="AD5" t="n">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="AE5" t="n">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="AF5" t="n">
-        <v>769</v>
+        <v>1570</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1032,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1044,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>1993-94</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1062,92 +1066,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J6" t="n">
-        <v>946</v>
+        <v>2853</v>
       </c>
       <c r="K6" t="n">
-        <v>196</v>
+        <v>641</v>
       </c>
       <c r="L6" t="n">
-        <v>435</v>
+        <v>1404</v>
       </c>
       <c r="M6" t="n">
-        <v>0.451</v>
+        <v>0.457</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="Q6" t="n">
-        <v>196</v>
+        <v>628</v>
       </c>
       <c r="R6" t="n">
-        <v>434</v>
+        <v>1351</v>
       </c>
       <c r="S6" t="n">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
       <c r="T6" t="n">
-        <v>0.451</v>
+        <v>0.461</v>
       </c>
       <c r="U6" t="n">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="V6" t="n">
-        <v>133</v>
+        <v>460</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7290000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="X6" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="Y6" t="n">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="Z6" t="n">
-        <v>287</v>
+        <v>550</v>
       </c>
       <c r="AA6" t="n">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="AB6" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="AD6" t="n">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="AE6" t="n">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="AF6" t="n">
-        <v>489</v>
+        <v>1647</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1156,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1168,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>1994-95</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1186,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" t="n">
-        <v>2601</v>
+        <v>2725</v>
       </c>
       <c r="K7" t="n">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="L7" t="n">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="M7" t="n">
-        <v>0.477</v>
+        <v>0.452</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.371</v>
       </c>
       <c r="Q7" t="n">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="R7" t="n">
-        <v>1225</v>
+        <v>937</v>
       </c>
       <c r="S7" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="T7" t="n">
-        <v>0.477</v>
+        <v>0.506</v>
       </c>
       <c r="U7" t="n">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="V7" t="n">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="W7" t="n">
-        <v>0.708</v>
+        <v>0.6940000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="Y7" t="n">
-        <v>666</v>
+        <v>271</v>
       </c>
       <c r="Z7" t="n">
-        <v>856</v>
+        <v>423</v>
       </c>
       <c r="AA7" t="n">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="AB7" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="n">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="AE7" t="n">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>1387</v>
+        <v>1601</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1280,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1292,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>1995-96</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1310,92 +1314,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J8" t="n">
-        <v>2402</v>
+        <v>2980</v>
       </c>
       <c r="K8" t="n">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="L8" t="n">
-        <v>1185</v>
+        <v>1306</v>
       </c>
       <c r="M8" t="n">
-        <v>0.45</v>
+        <v>0.423</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5</v>
+        <v>0.3779999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>532</v>
+        <v>375</v>
       </c>
       <c r="R8" t="n">
-        <v>1183</v>
+        <v>835</v>
       </c>
       <c r="S8" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="T8" t="n">
-        <v>0.45</v>
+        <v>0.492</v>
       </c>
       <c r="U8" t="n">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="V8" t="n">
-        <v>334</v>
+        <v>542</v>
       </c>
       <c r="W8" t="n">
-        <v>0.701</v>
+        <v>0.664</v>
       </c>
       <c r="X8" t="n">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="Y8" t="n">
-        <v>597</v>
+        <v>320</v>
       </c>
       <c r="Z8" t="n">
-        <v>753</v>
+        <v>443</v>
       </c>
       <c r="AA8" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AC8" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="AD8" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AE8" t="n">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="AF8" t="n">
-        <v>1301</v>
+        <v>1644</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1404,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1416,15 +1420,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>1996-97</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1434,92 +1438,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J9" t="n">
-        <v>1870</v>
+        <v>3077</v>
       </c>
       <c r="K9" t="n">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="L9" t="n">
-        <v>896</v>
+        <v>1043</v>
       </c>
       <c r="M9" t="n">
-        <v>0.471</v>
+        <v>0.426</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>350</v>
       </c>
       <c r="P9" t="n">
-        <v>0.333</v>
+        <v>0.346</v>
       </c>
       <c r="Q9" t="n">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="R9" t="n">
-        <v>893</v>
+        <v>693</v>
       </c>
       <c r="S9" t="n">
-        <v>0.471</v>
+        <v>0.466</v>
       </c>
       <c r="T9" t="n">
-        <v>0.472</v>
+        <v>0.484</v>
       </c>
       <c r="U9" t="n">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="V9" t="n">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="W9" t="n">
-        <v>0.742</v>
+        <v>0.696</v>
       </c>
       <c r="X9" t="n">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="Y9" t="n">
-        <v>405</v>
+        <v>231</v>
       </c>
       <c r="Z9" t="n">
-        <v>546</v>
+        <v>321</v>
       </c>
       <c r="AA9" t="n">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AD9" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AE9" t="n">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="AF9" t="n">
-        <v>1003</v>
+        <v>1224</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1528,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1540,15 +1544,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1562,88 +1566,88 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J10" t="n">
-        <v>2563</v>
+        <v>2359</v>
       </c>
       <c r="K10" t="n">
-        <v>595</v>
+        <v>429</v>
       </c>
       <c r="L10" t="n">
-        <v>1255</v>
+        <v>895</v>
       </c>
       <c r="M10" t="n">
-        <v>0.474</v>
+        <v>0.479</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="P10" t="n">
-        <v>0.25</v>
+        <v>0.321</v>
       </c>
       <c r="Q10" t="n">
-        <v>594</v>
+        <v>402</v>
       </c>
       <c r="R10" t="n">
-        <v>1251</v>
+        <v>811</v>
       </c>
       <c r="S10" t="n">
-        <v>0.475</v>
+        <v>0.496</v>
       </c>
       <c r="T10" t="n">
-        <v>0.475</v>
+        <v>0.494</v>
       </c>
       <c r="U10" t="n">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="V10" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="W10" t="n">
-        <v>0.762</v>
+        <v>0.6890000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="Y10" t="n">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="Z10" t="n">
-        <v>680</v>
+        <v>410</v>
       </c>
       <c r="AA10" t="n">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC10" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AD10" t="n">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="AE10" t="n">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AF10" t="n">
-        <v>1460</v>
+        <v>1133</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1652,7 +1656,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1664,15 +1668,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>1998-99</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1682,92 +1686,92 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>1586</v>
+        <v>1740</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>729</v>
+        <v>629</v>
       </c>
       <c r="M11" t="n">
-        <v>0.464</v>
+        <v>0.475</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="Q11" t="n">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="R11" t="n">
-        <v>725</v>
+        <v>490</v>
       </c>
       <c r="S11" t="n">
-        <v>0.466</v>
+        <v>0.492</v>
       </c>
       <c r="T11" t="n">
-        <v>0.464</v>
+        <v>0.521</v>
       </c>
       <c r="U11" t="n">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="V11" t="n">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="W11" t="n">
-        <v>0.755</v>
+        <v>0.6970000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="n">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="Z11" t="n">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="AA11" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AB11" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="n">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1776,7 +1780,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1788,15 +1792,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>1999-00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1810,88 +1814,88 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="J12" t="n">
-        <v>2110</v>
+        <v>2839</v>
       </c>
       <c r="K12" t="n">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="L12" t="n">
-        <v>1041</v>
+        <v>1142</v>
       </c>
       <c r="M12" t="n">
         <v>0.464</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="O12" t="n">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="P12" t="n">
-        <v>0.222</v>
+        <v>0.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="R12" t="n">
-        <v>1032</v>
+        <v>818</v>
       </c>
       <c r="S12" t="n">
-        <v>0.466</v>
+        <v>0.501</v>
       </c>
       <c r="T12" t="n">
-        <v>0.465</v>
+        <v>0.517</v>
       </c>
       <c r="U12" t="n">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="V12" t="n">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7170000000000001</v>
+        <v>0.782</v>
       </c>
       <c r="X12" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Y12" t="n">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="Z12" t="n">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="AA12" t="n">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="AB12" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AD12" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="n">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AF12" t="n">
-        <v>1178</v>
+        <v>1478</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1900,7 +1904,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1912,15 +1916,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1930,92 +1934,92 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="J13" t="n">
-        <v>416</v>
+        <v>2751</v>
       </c>
       <c r="K13" t="n">
+        <v>501</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1186</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="N13" t="n">
         <v>90</v>
       </c>
-      <c r="L13" t="n">
-        <v>187</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.361</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>411</v>
       </c>
       <c r="R13" t="n">
+        <v>937</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="U13" t="n">
+        <v>253</v>
+      </c>
+      <c r="V13" t="n">
+        <v>357</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7090000000000001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>229</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>334</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>237</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AD13" t="n">
         <v>186</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="U13" t="n">
-        <v>32</v>
-      </c>
-      <c r="V13" t="n">
-        <v>44</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="X13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>34</v>
-      </c>
       <c r="AE13" t="n">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="AF13" t="n">
-        <v>212</v>
+        <v>1345</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2024,7 +2028,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2036,15 +2040,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2058,88 +2062,88 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>78</v>
+        <v>2855</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="L14" t="n">
-        <v>27</v>
+        <v>1069</v>
       </c>
       <c r="M14" t="n">
-        <v>0.407</v>
+        <v>0.425</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.3779999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="R14" t="n">
-        <v>26</v>
+        <v>765</v>
       </c>
       <c r="S14" t="n">
-        <v>0.423</v>
+        <v>0.4429999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>0.407</v>
+        <v>0.478</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="V14" t="n">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="W14" t="n">
-        <v>0.875</v>
+        <v>0.6940000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="AB14" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>1166</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 208</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2148,7 +2152,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2160,113 +2164,981 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>36</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>81</v>
+      </c>
+      <c r="I15" t="n">
+        <v>69</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2825</v>
+      </c>
+      <c r="K15" t="n">
+        <v>372</v>
+      </c>
+      <c r="L15" t="n">
+        <v>935</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="N15" t="n">
+        <v>87</v>
+      </c>
+      <c r="O15" t="n">
+        <v>259</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>285</v>
+      </c>
+      <c r="R15" t="n">
+        <v>676</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="U15" t="n">
+        <v>161</v>
+      </c>
+      <c r="V15" t="n">
+        <v>238</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.6759999999999999</v>
+      </c>
+      <c r="X15" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>237</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>318</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>268</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>87</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>88</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>158</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>259</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>992</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>37</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I16" t="n">
+        <v>82</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2846</v>
+      </c>
+      <c r="K16" t="n">
+        <v>366</v>
+      </c>
+      <c r="L16" t="n">
+        <v>945</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>112</v>
+      </c>
+      <c r="O16" t="n">
+        <v>314</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>254</v>
+      </c>
+      <c r="R16" t="n">
+        <v>631</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="U16" t="n">
+        <v>123</v>
+      </c>
+      <c r="V16" t="n">
+        <v>173</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="X16" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>268</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>322</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>271</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>173</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>237</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>967</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>38</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C-PF</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>71</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1689</v>
+      </c>
+      <c r="K17" t="n">
+        <v>202</v>
+      </c>
+      <c r="L17" t="n">
+        <v>523</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="N17" t="n">
+        <v>67</v>
+      </c>
+      <c r="O17" t="n">
+        <v>193</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>135</v>
+      </c>
+      <c r="R17" t="n">
+        <v>330</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U17" t="n">
+        <v>62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>97</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="X17" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>209</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>104</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>66</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>181</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>533</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>38</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>42</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1090</v>
+      </c>
+      <c r="K18" t="n">
+        <v>141</v>
+      </c>
+      <c r="L18" t="n">
+        <v>354</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="N18" t="n">
+        <v>42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>127</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>99</v>
+      </c>
+      <c r="R18" t="n">
+        <v>227</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="U18" t="n">
+        <v>35</v>
+      </c>
+      <c r="V18" t="n">
+        <v>58</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="X18" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>107</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>359</v>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>38</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NJN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>29</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>599</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61</v>
+      </c>
+      <c r="L19" t="n">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>36</v>
+      </c>
+      <c r="R19" t="n">
+        <v>103</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="U19" t="n">
+        <v>27</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>174</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>39</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NJN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>80</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1863</v>
+      </c>
+      <c r="K20" t="n">
+        <v>219</v>
+      </c>
+      <c r="L20" t="n">
+        <v>513</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="N20" t="n">
+        <v>60</v>
+      </c>
+      <c r="O20" t="n">
+        <v>175</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>159</v>
+      </c>
+      <c r="R20" t="n">
+        <v>338</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="U20" t="n">
+        <v>52</v>
+      </c>
+      <c r="V20" t="n">
+        <v>79</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.6579999999999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>212</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>267</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>89</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>206</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>550</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NJN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>955</v>
+      </c>
+      <c r="K21" t="n">
+        <v>81</v>
+      </c>
+      <c r="L21" t="n">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3720000000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>56</v>
+      </c>
+      <c r="R21" t="n">
+        <v>152</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16</v>
+      </c>
+      <c r="V21" t="n">
+        <v>36</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="X21" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>203</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>629</v>
-      </c>
-      <c r="I15" t="n">
-        <v>413</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19284</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4493</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9596</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>38</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4486</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9558</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1830</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2533</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1363</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3874</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5237</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1249</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>655</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>441</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1571</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1870</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10823</v>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 206</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99 </t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="H22" t="n">
+        <v>1380</v>
+      </c>
+      <c r="I22" t="n">
+        <v>844</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42561</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7389</v>
+      </c>
+      <c r="L22" t="n">
+        <v>16875</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4379999999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1253</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3515</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6136</v>
+      </c>
+      <c r="R22" t="n">
+        <v>13360</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3560</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5165</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1852</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4454</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6306</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3094</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1402</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2502</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>4175</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19591</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 208</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
+      <c r="AJ22" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
